--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ecole\UDS\2018-01\Temps Reel\NXT-FTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{ED69C6E8-8E7B-49D9-A1C8-DE622C60B2D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B89CBE0E-58EF-44A5-B6CD-7AFD41DD031B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{EC732793-55EE-4E02-8B2A-D244545C803D}"/>
   </bookViews>
@@ -33,35 +33,35 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{454DBAFA-449E-47E0-BEFD-BAC5222324D2}" name="colorFile" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="colorFile" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\Ecole\UDS\2018-01\Temps Reel\NXT-FTL\NXT-FTL\colorFile.txt" decimal="," thousands=" ">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{D9EC82C0-4601-477E-B247-067CFC3E10CA}" name="distanceFile" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="distanceFile" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\Ecole\UDS\2018-01\Temps Reel\NXT-FTL\NXT-FTL\distanceFile.txt" decimal="," thousands=" ">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{4C80C5E1-B487-4339-ACAD-F09E01D1A274}" name="motorFile" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="motorFile" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\Ecole\UDS\2018-01\Temps Reel\NXT-FTL\NXT-FTL\motorFile.txt" decimal="," thousands=" ">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{7C982AED-00E9-4099-84FC-C7F7F47BE91E}" name="tachoFile" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="tachoFile" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\Ecole\UDS\2018-01\Temps Reel\NXT-FTL\NXT-FTL\tachoFile.txt" decimal="," thousands=" ">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{870F442F-4297-446B-8017-49985D070415}" name="touchFile" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="touchFile" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\Ecole\UDS\2018-01\Temps Reel\NXT-FTL\NXT-FTL\touchFile.txt" decimal="," thousands=" ">
       <textFields>
         <textField/>
@@ -7222,15 +7222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7258,15 +7258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7294,15 +7294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7331,14 +7331,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7367,23 +7367,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="motorFile" connectionId="3" xr16:uid="{B606D18D-ECF5-4B21-B00B-943955F79EAA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="motorFile" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="touchFile" connectionId="5" xr16:uid="{7064C85D-C4D6-4096-8F1B-F38EA0D71EFE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="touchFile" connectionId="5" xr16:uid="{00000000-0016-0000-0000-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tachoFile" connectionId="4" xr16:uid="{FB6DB98E-29A8-4FF7-BB84-6B6FEFC0E154}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tachoFile" connectionId="4" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="distanceFile" connectionId="2" xr16:uid="{2CE34B30-BABB-4974-A3B7-8A7D3C005FEF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="distanceFile" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="colorFile" connectionId="1" xr16:uid="{850B3706-2C0B-478C-BBCD-420B37D6B4B7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="colorFile" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7686,7 +7686,7 @@
   <dimension ref="A1:O379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13342,6 +13342,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>